--- a/biology/Zoologie/Canard_chipeau/Canard_chipeau.xlsx
+++ b/biology/Zoologie/Canard_chipeau/Canard_chipeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mareca strepera
-Le Canard chipeau (Mareca strepera, anciennement Anas strepera), autrefois appelé « Ridelle » ou « ridenne » en picard[1], est une espèce d'oiseaux de la famille des Anatidés présent en Eurasie et en Amérique du Nord.
+Le Canard chipeau (Mareca strepera, anciennement Anas strepera), autrefois appelé « Ridelle » ou « ridenne » en picard, est une espèce d'oiseaux de la famille des Anatidés présent en Eurasie et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle au bec sombre se caractérise par un plumage nuptial globalement gris, finement strié, des couvertures alaires roux vif, et l'arrière du corps très noir reconnaissable de loin.
 Il lance des cris sec et courts, le chant de sa femelle étant plus grêle.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les marais côtiers et les pâturages à proximité des plans d'eau.
 </t>
@@ -575,7 +591,9 @@
           <t>État des populations, pressions, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les principales menaces qui pèsent sur l'espèce sont :
 la destruction et la fragmentation des zones humides ou leur pollution ;
@@ -608,7 +626,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Mareca strepera strepera (Linnaeus, 1758) ;
